--- a/System C Automation Tester assessment/Data Driven Files/Test Data.xlsx
+++ b/System C Automation Tester assessment/Data Driven Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\System-C-Automation-Tester-assessment\System C Automation Tester assessment\Data Driven Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1EEA3A-46DB-4123-9680-E32ACBC60266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED005CC-4D3A-42CE-8493-8A2C07ABC216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{8EBFD78A-C705-4074-A9E9-206CE38D54CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{8EBFD78A-C705-4074-A9E9-206CE38D54CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Product - Post" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -94,9 +94,6 @@
     <t>This is a product 3</t>
   </si>
   <si>
-    <t>This is a product 5</t>
-  </si>
-  <si>
     <t>To verify if a products is created successfully when id is set to empty String</t>
   </si>
   <si>
@@ -118,12 +115,6 @@
     <t>Product 5</t>
   </si>
   <si>
-    <t>Product 6</t>
-  </si>
-  <si>
-    <t>Product 7</t>
-  </si>
-  <si>
     <t>This product is  has a  character greater than 50 characters</t>
   </si>
   <si>
@@ -136,12 +127,6 @@
     <t>This is a product 7</t>
   </si>
   <si>
-    <t>To verify if a products is created successfully when only name and Description are having a value and other field set to empty String/Integer</t>
-  </si>
-  <si>
-    <t>To verify if a products is created successfully when only name has value and other field set to empty String or Integer</t>
-  </si>
-  <si>
     <t>To verify if a products is created successfully when created date is set to a future Date</t>
   </si>
   <si>
@@ -178,9 +163,6 @@
     <t>To verify if a  products is created successfully when isActive is set to non bolean value</t>
   </si>
   <si>
-    <t>strings</t>
-  </si>
-  <si>
     <t>Product 12</t>
   </si>
   <si>
@@ -223,15 +205,6 @@
     <t>TC-CP-010</t>
   </si>
   <si>
-    <t>TC-CP-011</t>
-  </si>
-  <si>
-    <t>TC-CP-012</t>
-  </si>
-  <si>
-    <t>ProductModifys</t>
-  </si>
-  <si>
     <t>TC-MP-001</t>
   </si>
   <si>
@@ -295,38 +268,6 @@
     <t xml:space="preserve">To verify if a products name can be modified successfully </t>
   </si>
   <si>
-    <t>{
-  "id": "3062c1e9-48fd-4e72-be46-0a7c1a7ca349",
-  "name": "ProductModifys",
-  "price": 10,
-  "itemCount": 1,
-  "isActive": true,
-  "createdDateTime": "2021-07-10T22:03:42Z",
-  "modifiedDateTime": "2021-07-10T21:03:45.7503471Z"
-}</t>
-  </si>
-  <si>
-    <t>existingProductJson</t>
-  </si>
-  <si>
-    <t>fieldToModify</t>
-  </si>
-  <si>
-    <t>existingValue</t>
-  </si>
-  <si>
-    <t>modifyingValue</t>
-  </si>
-  <si>
-    <t>3062c1e9-48fd-4e72-be46-0a7c1a7ca349</t>
-  </si>
-  <si>
-    <t>3062c1e9-48fd-4e72-be46-0a7c1a7ca350</t>
-  </si>
-  <si>
-    <t>ProductModified</t>
-  </si>
-  <si>
     <t>TC-GPA-001</t>
   </si>
   <si>
@@ -466,6 +407,57 @@
   </si>
   <si>
     <t>endpointURL</t>
+  </si>
+  <si>
+    <t>aab45096-e8d7-45ff-8996-70f14d812159</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>idModify</t>
+  </si>
+  <si>
+    <t>nameModified</t>
+  </si>
+  <si>
+    <t>priceModified</t>
+  </si>
+  <si>
+    <t>itemCountModified</t>
+  </si>
+  <si>
+    <t>isActiveModified</t>
+  </si>
+  <si>
+    <t>createdDateTimeModified</t>
+  </si>
+  <si>
+    <t>modifiedDateTimeModified</t>
+  </si>
+  <si>
+    <t>To verify if a products id can be modified using empty string</t>
+  </si>
+  <si>
+    <t>To verify if a products id can be modified by using null</t>
+  </si>
+  <si>
+    <t>To verify if a products name can be modified using empty string</t>
+  </si>
+  <si>
+    <t>To verify if a products name can be modified by using null</t>
+  </si>
+  <si>
+    <t>keyIdentifier</t>
+  </si>
+  <si>
+    <t>To verify if a products name can be modified by using existing product name</t>
+  </si>
+  <si>
+    <t>"strings"</t>
+  </si>
+  <si>
+    <t>TC-GPA-005</t>
   </si>
 </sst>
 </file>
@@ -603,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,9 +603,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,6 +673,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,682 +995,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8557040-DC6A-45DF-9950-28E2A1FA4448}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.90625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="4"/>
-    <col min="2" max="2" width="35.6328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="4" customWidth="1"/>
-    <col min="6" max="9" width="17.90625" style="4"/>
-    <col min="10" max="10" width="12.54296875" style="4" customWidth="1"/>
-    <col min="11" max="16" width="17.90625" style="4"/>
-    <col min="17" max="17" width="19.6328125" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="17.90625" style="4"/>
+    <col min="1" max="1" width="17.90625" style="3"/>
+    <col min="2" max="2" width="35.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="17.90625" style="3"/>
+    <col min="10" max="10" width="12.54296875" style="3" customWidth="1"/>
+    <col min="11" max="16" width="17.90625" style="3"/>
+    <col min="17" max="17" width="19.6328125" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="17.90625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="13">
+        <v>20</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="12">
         <v>200</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>10</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="J2" s="11" t="b">
+      <c r="J2" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="16">
-        <v>0</v>
-      </c>
-      <c r="L2" s="16">
-        <v>0</v>
-      </c>
-      <c r="M2" s="16">
-        <v>0</v>
-      </c>
-      <c r="N2" s="16">
-        <v>0</v>
-      </c>
-      <c r="O2" s="17">
-        <v>0</v>
-      </c>
-      <c r="P2" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="17">
-        <v>0</v>
-      </c>
-      <c r="R2" s="17">
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15">
+        <v>0</v>
+      </c>
+      <c r="O2" s="16">
+        <v>0</v>
+      </c>
+      <c r="P2" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>0</v>
+      </c>
+      <c r="R2" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="13">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="12">
         <v>200</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>11</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>2</v>
       </c>
-      <c r="J3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0</v>
-      </c>
-      <c r="O3" s="17">
-        <v>0</v>
-      </c>
-      <c r="P3" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>0</v>
-      </c>
-      <c r="R3" s="17">
+      <c r="J3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="13">
+        <v>18</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="12">
         <v>200</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>12</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>3</v>
       </c>
-      <c r="J4" s="11" t="b">
+      <c r="J4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>0</v>
-      </c>
-      <c r="R4" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0</v>
+      </c>
+      <c r="R4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12">
+        <v>422</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="10">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10">
+        <v>20</v>
+      </c>
+      <c r="J5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>50</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="12">
+        <v>422</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10">
+        <v>30</v>
+      </c>
+      <c r="I6" s="10">
+        <v>45</v>
+      </c>
+      <c r="J6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>-50</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="13">
-        <v>200</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13">
-        <v>200</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-    </row>
-    <row r="7" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13">
-        <v>422</v>
-      </c>
-      <c r="E7" s="11">
-        <v>3</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="D7" s="12">
+        <v>400</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="10">
         <v>10</v>
       </c>
-      <c r="I7" s="11">
-        <v>20</v>
-      </c>
-      <c r="J7" s="11" t="b">
+      <c r="J7" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="16">
-        <v>50</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>0</v>
-      </c>
-      <c r="R7" s="17">
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13">
-        <v>422</v>
-      </c>
-      <c r="E8" s="11">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="11">
-        <v>30</v>
-      </c>
-      <c r="I8" s="11">
-        <v>45</v>
-      </c>
-      <c r="J8" s="11" t="b">
+        <v>37</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="12">
+        <v>400</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="10">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="16">
-        <v>-50</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>0</v>
-      </c>
-      <c r="R8" s="17">
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="13">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12">
+        <v>400</v>
+      </c>
+      <c r="E9" s="10">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="10">
+        <v>10</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12">
         <v>422</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="10">
+        <v>13</v>
+      </c>
+      <c r="I10" s="10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12">
+        <v>422</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="10">
+        <v>14</v>
+      </c>
+      <c r="I11" s="10">
         <v>5</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="11">
-        <v>10</v>
-      </c>
-      <c r="J9" s="11" t="b">
+      <c r="J11" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>0</v>
-      </c>
-      <c r="R9" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="13">
-        <v>422</v>
-      </c>
-      <c r="E10" s="11">
-        <v>6</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="11">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17">
-        <v>0</v>
-      </c>
-      <c r="P10" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>0</v>
-      </c>
-      <c r="R10" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13">
-        <v>422</v>
-      </c>
-      <c r="E11" s="11">
-        <v>7</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="11">
-        <v>10</v>
-      </c>
-      <c r="I11" s="11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="17">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>0</v>
-      </c>
-      <c r="R11" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13">
-        <v>422</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="11">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11">
-        <v>4</v>
-      </c>
-      <c r="J12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0</v>
-      </c>
-      <c r="L12" s="16">
-        <v>0</v>
-      </c>
-      <c r="M12" s="16">
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
-        <v>0</v>
-      </c>
-      <c r="P12" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>0</v>
-      </c>
-      <c r="R12" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13">
-        <v>422</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="11">
-        <v>14</v>
-      </c>
-      <c r="I13" s="11">
-        <v>5</v>
-      </c>
-      <c r="J13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
-        <v>0</v>
-      </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="17">
-        <v>0</v>
-      </c>
-      <c r="P13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>0</v>
-      </c>
-      <c r="R13" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1686,193 +1620,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CD4340-14B0-45BD-B7DD-D44D7CEFDF17}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" style="4" customWidth="1"/>
-    <col min="2" max="3" width="25" style="4"/>
-    <col min="4" max="4" width="35.36328125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="25" style="4"/>
-    <col min="7" max="7" width="31.36328125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="25" style="4"/>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.90625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="25" style="3"/>
+    <col min="5" max="5" width="35.36328125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="25" style="3"/>
+    <col min="8" max="8" width="31.36328125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="12">
+        <v>422</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="12">
+        <v>200</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="28"/>
+      <c r="F4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="28"/>
+      <c r="F6" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="28"/>
+      <c r="F7" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="28"/>
+      <c r="F8" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="28"/>
+      <c r="F9" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="28"/>
+      <c r="F10" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="13">
-        <v>422</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="28"/>
+      <c r="F11" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="13">
-        <v>200</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="28"/>
+      <c r="F12" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="28"/>
+      <c r="F13" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="28"/>
+      <c r="F14" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="28"/>
+      <c r="F15" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="28"/>
+      <c r="F16" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="28"/>
+      <c r="F17" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="28"/>
+      <c r="F18" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="28"/>
+      <c r="F19" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1887,101 +1901,101 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.54296875" defaultRowHeight="35.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" style="20"/>
-    <col min="2" max="2" width="70.453125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="41.7265625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="59.36328125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="29" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="19.54296875" style="20"/>
+    <col min="1" max="1" width="19.54296875" style="19"/>
+    <col min="2" max="2" width="70.453125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="41.7265625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="59.36328125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="29" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="19.54296875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>95</v>
+      <c r="D1" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="23">
+        <v>77</v>
+      </c>
+      <c r="C2" s="22">
         <v>200</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>96</v>
+      <c r="D2" s="21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="23">
+        <v>82</v>
+      </c>
+      <c r="C3" s="22">
         <v>404</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>100</v>
+      <c r="D3" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="23">
+        <v>104</v>
+      </c>
+      <c r="C4" s="22">
         <v>405</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>98</v>
+      <c r="D4" s="21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="23">
+        <v>89</v>
+      </c>
+      <c r="C5" s="22">
         <v>404</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>105</v>
+      <c r="D5" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="23">
+        <v>86</v>
+      </c>
+      <c r="C6" s="22">
         <v>404</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>104</v>
+      <c r="D6" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1996,133 +2010,133 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.54296875" defaultRowHeight="35.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" style="4"/>
-    <col min="2" max="2" width="70.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="41.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="59.36328125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="19.54296875" style="4"/>
+    <col min="1" max="1" width="19.54296875" style="3"/>
+    <col min="2" max="2" width="70.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="59.36328125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="19.54296875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>110</v>
+      <c r="D1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="23">
+        <v>92</v>
+      </c>
+      <c r="C2" s="22">
         <v>200</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>108</v>
+      <c r="D2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="23">
+        <v>95</v>
+      </c>
+      <c r="C3" s="22">
         <v>404</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>111</v>
+      <c r="D3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="23">
+        <v>96</v>
+      </c>
+      <c r="C4" s="22">
         <v>404</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>114</v>
+      <c r="D4" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="23">
+        <v>98</v>
+      </c>
+      <c r="C5" s="22">
         <v>405</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="27"/>
+      <c r="D5" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="23">
+        <v>99</v>
+      </c>
+      <c r="C6" s="22">
         <v>404</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>117</v>
+      <c r="D6" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="23">
+        <v>102</v>
+      </c>
+      <c r="C7" s="22">
         <v>405</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>108</v>
+      <c r="D7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721E06DA-FB7F-4B8B-A9F9-B3A0A11E8CE9}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2147,83 +2161,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="23">
+        <v>117</v>
+      </c>
+      <c r="D2" s="22">
         <v>200</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>129</v>
+      <c r="E2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="23">
+        <v>121</v>
+      </c>
+      <c r="D3" s="22">
         <v>404</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>129</v>
+      <c r="E3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="23">
+        <v>121</v>
+      </c>
+      <c r="D4" s="22">
         <v>404</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>129</v>
+      <c r="E4" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
